--- a/backend/projects/project-a-123-sunset-blvd/data/11_CLIENT_BILLING/Revenue_Recognition_Schedule.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/11_CLIENT_BILLING/Revenue_Recognition_Schedule.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,6 +729,838 @@
         <v/>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v>31193</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26145</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F12">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G12">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v>33205</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v>33689</v>
+      </c>
+      <c r="D13" t="n">
+        <v>47760</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F13">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v>14582</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v>41098</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35700</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F14">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v>9706</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v>4984</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2090</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v>35063</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v>9735</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19676</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F16">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v>40648</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C17" t="n">
+        <v>47256</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31288</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F17">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G17">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H17" t="n">
+        <v>36749</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C18" t="n">
+        <v>9808</v>
+      </c>
+      <c r="D18" t="n">
+        <v>39273</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F18">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G18">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H18" t="n">
+        <v>30311</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C19" t="n">
+        <v>45273</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6689</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F19">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H19" t="n">
+        <v>24156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C20" t="n">
+        <v>38127</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8904</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F20">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G20">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H20" t="n">
+        <v>9229</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C21" t="n">
+        <v>3247</v>
+      </c>
+      <c r="D21" t="n">
+        <v>39619</v>
+      </c>
+      <c r="E21">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F21">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G21">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H21" t="n">
+        <v>23398</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C22" t="n">
+        <v>37156</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11302</v>
+      </c>
+      <c r="E22">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F22">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G22">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H22" t="n">
+        <v>48545</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C23" t="n">
+        <v>46150</v>
+      </c>
+      <c r="D23" t="n">
+        <v>17509</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F23">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G23">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H23" t="n">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C24" t="n">
+        <v>34994</v>
+      </c>
+      <c r="D24" t="n">
+        <v>37256</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F24">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G24">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H24" t="n">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C25" t="n">
+        <v>20003</v>
+      </c>
+      <c r="D25" t="n">
+        <v>22046</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F25">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G25">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H25" t="n">
+        <v>26326</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C26" t="n">
+        <v>22473</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19043</v>
+      </c>
+      <c r="E26">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F26">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G26">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H26" t="n">
+        <v>48410</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C27" t="n">
+        <v>39644</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8328</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F27">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G27">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H27" t="n">
+        <v>22631</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C28" t="n">
+        <v>13735</v>
+      </c>
+      <c r="D28" t="n">
+        <v>34852</v>
+      </c>
+      <c r="E28">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F28">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G28">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H28" t="n">
+        <v>34479</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C29" t="n">
+        <v>47596</v>
+      </c>
+      <c r="D29" t="n">
+        <v>46464</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F29">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G29">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H29" t="n">
+        <v>20264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C30" t="n">
+        <v>23888</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4322</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F30">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G30">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H30" t="n">
+        <v>6823</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C31" t="n">
+        <v>6069</v>
+      </c>
+      <c r="D31" t="n">
+        <v>46832</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F31">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G31">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H31" t="n">
+        <v>17980</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C32" t="n">
+        <v>9734</v>
+      </c>
+      <c r="D32" t="n">
+        <v>47633</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F32">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G32">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H32" t="n">
+        <v>33395</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C33" t="n">
+        <v>26572</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20167</v>
+      </c>
+      <c r="E33">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F33">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G33">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H33" t="n">
+        <v>8170</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C34" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8477</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F34">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G34">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H34" t="n">
+        <v>17176</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C35" t="n">
+        <v>23336</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7360</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F35">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G35">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H35" t="n">
+        <v>27694</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C36" t="n">
+        <v>12707</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8093</v>
+      </c>
+      <c r="E36">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F36">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G36">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H36" t="n">
+        <v>47534</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37">
+        <f>SUM(B5:B10)</f>
+        <v/>
+      </c>
+      <c r="C37" t="n">
+        <v>30768</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9010</v>
+      </c>
+      <c r="E37">
+        <f>SUM(E5:E10)</f>
+        <v/>
+      </c>
+      <c r="F37">
+        <f>SUM(F5:F10)</f>
+        <v/>
+      </c>
+      <c r="G37">
+        <f>SUM(G5:G10)</f>
+        <v/>
+      </c>
+      <c r="H37" t="n">
+        <v>20991</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
